--- a/data/Yting_260321_20210326-103027/Coral Wägeprotokoll.xlsx
+++ b/data/Yting_260321_20210326-103027/Coral Wägeprotokoll.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Github Repos\BachelorGUI\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Github Repos\BachelorGUI\data\Yting_260321_20210326-103027\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831DC024-986C-4368-8040-D2A151C72EA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01402437-4A48-430C-B7EB-8C503C3DFCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{6F349DAC-94B8-4E41-9C82-E9AFBEEB2267}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="129">
   <si>
     <t>Lab. #</t>
   </si>
@@ -404,6 +404,24 @@
   </si>
   <si>
     <t>Geob23213-1_8538</t>
+  </si>
+  <si>
+    <t>10815a</t>
+  </si>
+  <si>
+    <t>11069b</t>
+  </si>
+  <si>
+    <t>11070a</t>
+  </si>
+  <si>
+    <t>11071a</t>
+  </si>
+  <si>
+    <t>11072a</t>
+  </si>
+  <si>
+    <t>11074b</t>
   </si>
 </sst>
 </file>
@@ -875,8 +893,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H120" sqref="H120"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,8 +940,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>10815</v>
+      <c r="A3" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>10</v>
@@ -3220,8 +3238,8 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="5">
-        <v>11069</v>
+      <c r="A107" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>118</v>
@@ -3243,8 +3261,8 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="5">
-        <v>11070</v>
+      <c r="A108" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>119</v>
@@ -3266,8 +3284,8 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="5">
-        <v>11071</v>
+      <c r="A109" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>120</v>
@@ -3289,8 +3307,8 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="5">
-        <v>11072</v>
+      <c r="A110" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>121</v>
@@ -3310,8 +3328,8 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="5">
-        <v>11074</v>
+      <c r="A111" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>122</v>
